--- a/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/INVENTARIO ALMACEN  DICIEMBRE       2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#15  ARCHIVO   2 0 2 2/CENTRAL #12  DICIEMBRE 2022/INVENTARIO ALMACEN  DICIEMBRE       2022.xlsx
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="165">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -1057,6 +1057,12 @@
   </si>
   <si>
     <t>PUNTAS CAÑA DE LOMO</t>
+  </si>
+  <si>
+    <t>1.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOBRANTE DE PUNTA DE CHULETA  CONTRA INVENTARIO FISICO </t>
   </si>
 </sst>
 </file>
@@ -3955,6 +3961,36 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4018,36 +4054,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4093,6 +4099,30 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4114,41 +4144,17 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4481,10 +4487,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4496,50 +4502,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44591</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -4561,7 +4567,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -4618,8 +4624,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -4657,8 +4663,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -4741,8 +4747,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="591"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="601"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -4823,8 +4829,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="614"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="593"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
     </row>
@@ -4975,8 +4981,8 @@
         <f>L14+I14</f>
         <v>-34</v>
       </c>
-      <c r="O14" s="615"/>
-      <c r="P14" s="615"/>
+      <c r="O14" s="594"/>
+      <c r="P14" s="594"/>
       <c r="Q14" s="163" t="s">
         <v>47</v>
       </c>
@@ -5190,8 +5196,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O19" s="616"/>
-      <c r="P19" s="616"/>
+      <c r="O19" s="595"/>
+      <c r="P19" s="595"/>
       <c r="Q19" s="163" t="s">
         <v>49</v>
       </c>
@@ -5278,8 +5284,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="617"/>
-      <c r="P21" s="617"/>
+      <c r="O21" s="596"/>
+      <c r="P21" s="596"/>
       <c r="Q21" s="163" t="s">
         <v>50</v>
       </c>
@@ -5323,8 +5329,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="618"/>
-      <c r="P22" s="619"/>
+      <c r="O22" s="597"/>
+      <c r="P22" s="598"/>
       <c r="Q22" s="150"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
@@ -5430,8 +5436,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="620"/>
-      <c r="P25" s="620"/>
+      <c r="O25" s="599"/>
+      <c r="P25" s="599"/>
       <c r="Q25" s="163" t="s">
         <v>51</v>
       </c>
@@ -5823,10 +5829,10 @@
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="612" t="s">
+      <c r="F37" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="612"/>
+      <c r="G37" s="591"/>
       <c r="H37" s="129">
         <f>SUM(H5:H30)</f>
         <v>35456.6</v>
@@ -5855,7 +5861,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="611" t="s">
+      <c r="B40" s="590" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="155" t="s">
@@ -5876,7 +5882,7 @@
       <c r="N40" s="160"/>
     </row>
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="611"/>
+      <c r="B41" s="590"/>
       <c r="C41" s="155" t="s">
         <v>48</v>
       </c>
@@ -5895,7 +5901,7 @@
       <c r="N41" s="160"/>
     </row>
     <row r="42" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="611"/>
+      <c r="B42" s="590"/>
       <c r="C42" s="155" t="s">
         <v>49</v>
       </c>
@@ -5914,7 +5920,7 @@
       <c r="N42" s="160"/>
     </row>
     <row r="43" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="611"/>
+      <c r="B43" s="590"/>
       <c r="C43" s="155" t="s">
         <v>50</v>
       </c>
@@ -5933,7 +5939,7 @@
       <c r="N43" s="160"/>
     </row>
     <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="611"/>
+      <c r="B44" s="590"/>
       <c r="C44" s="155" t="s">
         <v>51</v>
       </c>
@@ -5952,7 +5958,7 @@
       <c r="N44" s="160"/>
     </row>
     <row r="45" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="611"/>
+      <c r="B45" s="590"/>
       <c r="C45" s="155" t="s">
         <v>54</v>
       </c>
@@ -5978,14 +5984,6 @@
     <sortCondition ref="B7:B36"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O25:P25"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -5998,6 +5996,14 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -6012,8 +6018,8 @@
   </sheetPr>
   <dimension ref="B1:X51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,10 +6044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="653"/>
+      <c r="B1" s="653" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="654"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -6053,21 +6059,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44836</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
       <c r="Q2" s="330"/>
@@ -6077,30 +6083,30 @@
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="654"/>
+      <c r="P3" s="652"/>
       <c r="Q3" s="330"/>
       <c r="R3" s="185"/>
       <c r="S3" s="185"/>
@@ -6126,7 +6132,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -6191,8 +6197,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="606"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="616"/>
       <c r="Q5" s="330"/>
       <c r="R5" s="185"/>
       <c r="S5" s="185"/>
@@ -6234,8 +6240,8 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="608"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="618"/>
       <c r="Q6" s="489" t="s">
         <v>138</v>
       </c>
@@ -6318,8 +6324,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
@@ -6400,8 +6406,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
       <c r="S10" s="185"/>
@@ -6529,8 +6535,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="188"/>
@@ -6816,8 +6822,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="616"/>
-      <c r="P20" s="616"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="185"/>
@@ -6898,8 +6904,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="617"/>
-      <c r="P22" s="617"/>
+      <c r="O22" s="596"/>
+      <c r="P22" s="596"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="189"/>
@@ -6933,8 +6939,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="618"/>
-      <c r="P23" s="618"/>
+      <c r="O23" s="597"/>
+      <c r="P23" s="597"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="185"/>
@@ -7046,8 +7052,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O26" s="620"/>
-      <c r="P26" s="620"/>
+      <c r="O26" s="599"/>
+      <c r="P26" s="599"/>
       <c r="Q26" s="489" t="s">
         <v>140</v>
       </c>
@@ -7524,10 +7530,10 @@
     <row r="39" spans="2:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="612" t="s">
+      <c r="F39" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="612"/>
+      <c r="G39" s="591"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>41982.6</v>
@@ -7728,6 +7734,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -7740,13 +7753,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7761,8 +7767,8 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="C19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7787,10 +7793,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="653"/>
+      <c r="B1" s="653" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="654"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7802,21 +7808,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44864</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
       <c r="Q2" s="330"/>
@@ -7826,30 +7832,30 @@
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="654"/>
+      <c r="P3" s="652"/>
       <c r="Q3" s="330"/>
       <c r="R3" s="185"/>
       <c r="S3" s="185"/>
@@ -7875,7 +7881,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -7936,8 +7942,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="606"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="616"/>
       <c r="Q5" s="330"/>
       <c r="R5" s="185"/>
       <c r="S5" s="185"/>
@@ -7979,8 +7985,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="608"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="618"/>
       <c r="Q6" s="489"/>
       <c r="R6" s="185"/>
       <c r="S6" s="513"/>
@@ -8061,8 +8067,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
@@ -8131,8 +8137,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="517"/>
       <c r="R10" s="185"/>
       <c r="S10" s="185"/>
@@ -8264,8 +8270,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="188"/>
@@ -8549,8 +8555,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="616"/>
-      <c r="P20" s="616"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="185"/>
@@ -8627,8 +8633,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O22" s="617"/>
-      <c r="P22" s="617"/>
+      <c r="O22" s="596"/>
+      <c r="P22" s="596"/>
       <c r="Q22" s="520" t="s">
         <v>47</v>
       </c>
@@ -8664,8 +8670,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="618"/>
-      <c r="P23" s="618"/>
+      <c r="O23" s="597"/>
+      <c r="P23" s="597"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="185"/>
@@ -8777,8 +8783,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="620"/>
-      <c r="P26" s="620"/>
+      <c r="O26" s="599"/>
+      <c r="P26" s="599"/>
       <c r="Q26" s="489"/>
       <c r="R26" s="185"/>
       <c r="S26" s="185"/>
@@ -8795,7 +8801,7 @@
         <v>1426</v>
       </c>
       <c r="G27" s="451">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" s="60">
         <f t="shared" si="0"/>
@@ -8803,7 +8809,7 @@
       </c>
       <c r="I27" s="88">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="83">
@@ -8818,7 +8824,7 @@
       </c>
       <c r="N27" s="519">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="221"/>
       <c r="P27" s="222"/>
@@ -9264,17 +9270,17 @@
     <row r="39" spans="1:20" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="612" t="s">
+      <c r="F39" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="612"/>
+      <c r="G39" s="591"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>16666.63</v>
       </c>
       <c r="I39" s="130">
         <f>SUM(I5:I31)</f>
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="J39" s="131"/>
       <c r="K39" s="132">
@@ -9467,13 +9473,6 @@
     <sortCondition ref="B5:B37"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -9486,6 +9485,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9504,7 +9510,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9529,10 +9535,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="653"/>
+      <c r="B1" s="653" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="654"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -9544,15 +9550,15 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44893</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="655" t="s">
@@ -9568,30 +9574,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="655"/>
       <c r="L3" s="655"/>
-      <c r="M3" s="602" t="s">
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="654"/>
+      <c r="P3" s="652"/>
       <c r="Q3" s="572"/>
       <c r="R3" s="185"/>
       <c r="S3" s="185"/>
@@ -9617,7 +9623,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -9670,8 +9676,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="606"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="616"/>
       <c r="Q5" s="572"/>
       <c r="R5" s="185"/>
       <c r="S5" s="185"/>
@@ -9717,8 +9723,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="608"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="618"/>
       <c r="Q6" s="573"/>
       <c r="R6" s="185"/>
       <c r="S6" s="513"/>
@@ -9799,8 +9805,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="573"/>
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
@@ -9885,8 +9891,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="574" t="s">
         <v>47</v>
       </c>
@@ -10016,8 +10022,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="575" t="s">
         <v>48</v>
       </c>
@@ -10307,8 +10313,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="616"/>
-      <c r="P20" s="616"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
       <c r="Q20" s="574" t="s">
         <v>47</v>
       </c>
@@ -10387,8 +10393,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="617"/>
-      <c r="P22" s="617"/>
+      <c r="O22" s="596"/>
+      <c r="P22" s="596"/>
       <c r="Q22" s="573"/>
       <c r="R22" s="189"/>
       <c r="S22" s="189"/>
@@ -10422,8 +10428,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="618"/>
-      <c r="P23" s="618"/>
+      <c r="O23" s="597"/>
+      <c r="P23" s="597"/>
       <c r="Q23" s="573"/>
       <c r="R23" s="185"/>
       <c r="S23" s="185"/>
@@ -10539,8 +10545,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="620"/>
-      <c r="P26" s="620"/>
+      <c r="O26" s="599"/>
+      <c r="P26" s="599"/>
       <c r="Q26" s="573"/>
       <c r="R26" s="185"/>
       <c r="S26" s="185"/>
@@ -10554,7 +10560,7 @@
         <v>1215.77</v>
       </c>
       <c r="D27" s="448">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="264"/>
       <c r="F27" s="538"/>
@@ -10565,7 +10571,7 @@
       </c>
       <c r="I27" s="552">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" s="241"/>
       <c r="K27" s="83">
@@ -10580,7 +10586,7 @@
       </c>
       <c r="N27" s="568">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="221"/>
       <c r="P27" s="222"/>
@@ -11022,17 +11028,17 @@
     <row r="39" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="612" t="s">
+      <c r="F39" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="612"/>
+      <c r="G39" s="591"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>48902.639999999992</v>
       </c>
       <c r="I39" s="130">
         <f>SUM(I5:I31)</f>
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="J39" s="131"/>
       <c r="K39" s="132">
@@ -11222,13 +11228,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -11241,6 +11240,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11255,8 +11261,8 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:N22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -11281,10 +11287,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="652" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="653"/>
+      <c r="B1" s="653" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="654"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -11296,15 +11302,15 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44933</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="655" t="s">
@@ -11320,30 +11326,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="655"/>
       <c r="L3" s="655"/>
-      <c r="M3" s="602" t="s">
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="654"/>
+      <c r="P3" s="652"/>
       <c r="Q3" s="572"/>
       <c r="R3" s="185"/>
       <c r="S3" s="185"/>
@@ -11369,7 +11375,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -11430,8 +11436,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="606"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="616"/>
       <c r="Q5" s="572"/>
       <c r="R5" s="185"/>
       <c r="S5" s="185"/>
@@ -11555,8 +11561,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="573"/>
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
@@ -11641,8 +11647,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="573"/>
       <c r="R10" s="185"/>
       <c r="S10" s="185"/>
@@ -11770,8 +11776,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="573"/>
       <c r="R13" s="188"/>
       <c r="S13" s="188"/>
@@ -12047,8 +12053,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="616"/>
-      <c r="P20" s="616"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
       <c r="Q20" s="573"/>
       <c r="R20" s="185"/>
       <c r="S20" s="185"/>
@@ -12108,7 +12114,7 @@
         <v>803.58</v>
       </c>
       <c r="G22" s="449">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H22" s="268">
         <f t="shared" si="0"/>
@@ -12116,25 +12122,25 @@
       </c>
       <c r="I22" s="269">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J22" s="241"/>
       <c r="K22" s="51">
-        <v>812.66</v>
+        <v>803.58</v>
       </c>
       <c r="L22" s="52">
-        <v>179</v>
-      </c>
-      <c r="M22" s="289">
-        <f t="shared" si="1"/>
-        <v>9.0799999999999272</v>
-      </c>
-      <c r="N22" s="290">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O22" s="617"/>
-      <c r="P22" s="617"/>
+        <v>177</v>
+      </c>
+      <c r="M22" s="220">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="270">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="596"/>
+      <c r="P22" s="596"/>
       <c r="Q22" s="573"/>
       <c r="R22" s="189"/>
       <c r="S22" s="189"/>
@@ -12168,8 +12174,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="618"/>
-      <c r="P23" s="618"/>
+      <c r="O23" s="597"/>
+      <c r="P23" s="597"/>
       <c r="Q23" s="573"/>
       <c r="R23" s="185"/>
       <c r="S23" s="185"/>
@@ -12281,8 +12287,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O26" s="620"/>
-      <c r="P26" s="620"/>
+      <c r="O26" s="599"/>
+      <c r="P26" s="599"/>
       <c r="Q26" s="573"/>
       <c r="R26" s="185"/>
       <c r="S26" s="185"/>
@@ -12601,22 +12607,24 @@
       </c>
       <c r="J34" s="241"/>
       <c r="K34" s="83">
-        <v>15197.5</v>
+        <v>15261.23</v>
       </c>
       <c r="L34" s="52">
-        <v>508</v>
-      </c>
-      <c r="M34" s="220">
-        <f t="shared" si="2"/>
-        <v>-0.28000000000065484</v>
-      </c>
-      <c r="N34" s="270">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>510</v>
+      </c>
+      <c r="M34" s="315">
+        <f t="shared" si="2"/>
+        <v>63.449999999998909</v>
+      </c>
+      <c r="N34" s="316">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="O34" s="232"/>
       <c r="P34" s="233"/>
-      <c r="Q34" s="573"/>
+      <c r="Q34" s="573" t="s">
+        <v>163</v>
+      </c>
       <c r="R34" s="185"/>
       <c r="S34" s="185"/>
       <c r="T34" s="185"/>
@@ -12784,22 +12792,22 @@
     <row r="39" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="612" t="s">
+      <c r="F39" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="612"/>
+      <c r="G39" s="591"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>34885.770000000004</v>
       </c>
       <c r="I39" s="130">
         <f>SUM(I5:I31)</f>
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="J39" s="131"/>
       <c r="K39" s="132">
         <f>SUM(K5:K37)</f>
-        <v>61740.05</v>
+        <v>61794.7</v>
       </c>
       <c r="L39" s="133" t="s">
         <v>63</v>
@@ -12854,7 +12862,9 @@
       <c r="C43" s="570" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="576"/>
+      <c r="D43" s="576" t="s">
+        <v>164</v>
+      </c>
       <c r="E43" s="577"/>
       <c r="F43" s="577"/>
       <c r="G43" s="578"/>
@@ -12980,13 +12990,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -12999,6 +13002,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13054,10 +13064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -13069,50 +13079,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44619</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -13134,7 +13144,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -13191,8 +13201,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -13230,8 +13240,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -13316,8 +13326,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -13389,8 +13399,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -13514,8 +13524,8 @@
         <f t="shared" ref="N13:N33" si="2">L13-I13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="199" t="s">
         <v>64</v>
       </c>
@@ -13711,8 +13721,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="616"/>
-      <c r="P18" s="616"/>
+      <c r="O18" s="595"/>
+      <c r="P18" s="595"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -13793,8 +13803,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="617"/>
-      <c r="P20" s="617"/>
+      <c r="O20" s="596"/>
+      <c r="P20" s="596"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -13828,8 +13838,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="618"/>
-      <c r="P21" s="618"/>
+      <c r="O21" s="597"/>
+      <c r="P21" s="597"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -13937,8 +13947,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="620"/>
-      <c r="P24" s="620"/>
+      <c r="O24" s="599"/>
+      <c r="P24" s="599"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="1"/>
     </row>
@@ -14339,10 +14349,10 @@
     <row r="36" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="126"/>
       <c r="D36" s="128"/>
-      <c r="F36" s="612" t="s">
+      <c r="F36" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="612"/>
+      <c r="G36" s="591"/>
       <c r="H36" s="129">
         <f>SUM(H5:H29)</f>
         <v>22064.760000000002</v>
@@ -14380,7 +14390,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="611" t="s">
+      <c r="B39" s="590" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="155" t="s">
@@ -14401,7 +14411,7 @@
       <c r="N39" s="212"/>
     </row>
     <row r="40" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="611"/>
+      <c r="B40" s="590"/>
       <c r="C40" s="204"/>
       <c r="D40" s="213"/>
       <c r="E40" s="214"/>
@@ -14416,7 +14426,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="611"/>
+      <c r="B41" s="590"/>
       <c r="C41" s="201" t="s">
         <v>48</v>
       </c>
@@ -14487,18 +14497,6 @@
     <sortCondition ref="B9:B16"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B39:B44"/>
@@ -14507,6 +14505,18 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -14547,10 +14557,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -14562,50 +14572,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44647</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -14627,7 +14637,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -14684,8 +14694,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -14723,8 +14733,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -14809,8 +14819,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -14882,8 +14892,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -14999,8 +15009,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -15190,8 +15200,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="616"/>
-      <c r="P18" s="616"/>
+      <c r="O18" s="595"/>
+      <c r="P18" s="595"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -15260,8 +15270,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="617"/>
-      <c r="P20" s="617"/>
+      <c r="O20" s="596"/>
+      <c r="P20" s="596"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -15295,8 +15305,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="618"/>
-      <c r="P21" s="618"/>
+      <c r="O21" s="597"/>
+      <c r="P21" s="597"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -15404,8 +15414,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="620"/>
-      <c r="P24" s="620"/>
+      <c r="O24" s="599"/>
+      <c r="P24" s="599"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -15845,10 +15855,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="612" t="s">
+      <c r="F37" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="612"/>
+      <c r="G37" s="591"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>19776.46</v>
@@ -15981,6 +15991,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O24:P24"/>
@@ -15988,18 +16010,6 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -16040,10 +16050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -16055,50 +16065,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44682</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -16120,7 +16130,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -16177,8 +16187,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -16216,8 +16226,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -16302,8 +16312,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -16383,8 +16393,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -16500,8 +16510,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -16691,8 +16701,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O18" s="616"/>
-      <c r="P18" s="616"/>
+      <c r="O18" s="595"/>
+      <c r="P18" s="595"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -16777,8 +16787,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="617"/>
-      <c r="P20" s="617"/>
+      <c r="O20" s="596"/>
+      <c r="P20" s="596"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -16812,8 +16822,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="618"/>
-      <c r="P21" s="618"/>
+      <c r="O21" s="597"/>
+      <c r="P21" s="597"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -16921,8 +16931,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="620"/>
-      <c r="P24" s="620"/>
+      <c r="O24" s="599"/>
+      <c r="P24" s="599"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -17370,10 +17380,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="612" t="s">
+      <c r="F37" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="612"/>
+      <c r="G37" s="591"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>33269.280000000006</v>
@@ -17512,6 +17522,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -17521,17 +17542,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -17572,10 +17582,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -17587,50 +17597,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44710</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -17652,7 +17662,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -17709,8 +17719,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -17748,8 +17758,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -17838,8 +17848,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -17925,8 +17935,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -18042,8 +18052,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -18241,8 +18251,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="616"/>
-      <c r="P18" s="616"/>
+      <c r="O18" s="595"/>
+      <c r="P18" s="595"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -18319,8 +18329,8 @@
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="O20" s="617"/>
-      <c r="P20" s="617"/>
+      <c r="O20" s="596"/>
+      <c r="P20" s="596"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -18354,8 +18364,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="618"/>
-      <c r="P21" s="618"/>
+      <c r="O21" s="597"/>
+      <c r="P21" s="597"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -18467,8 +18477,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="620"/>
-      <c r="P24" s="620"/>
+      <c r="O24" s="599"/>
+      <c r="P24" s="599"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -18929,10 +18939,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="612" t="s">
+      <c r="F37" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="612"/>
+      <c r="G37" s="591"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>41344.509999999995</v>
@@ -19098,6 +19108,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -19111,14 +19129,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -19159,10 +19169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -19174,50 +19184,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44745</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -19239,7 +19249,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -19296,8 +19306,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -19335,8 +19345,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -19421,8 +19431,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -19508,8 +19518,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="300"/>
       <c r="R10" s="185"/>
     </row>
@@ -19633,8 +19643,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="331" t="s">
         <v>91</v>
       </c>
@@ -19842,8 +19852,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="616"/>
-      <c r="P18" s="616"/>
+      <c r="O18" s="595"/>
+      <c r="P18" s="595"/>
       <c r="Q18" s="333" t="s">
         <v>92</v>
       </c>
@@ -19967,8 +19977,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="618"/>
-      <c r="P21" s="618"/>
+      <c r="O21" s="597"/>
+      <c r="P21" s="597"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -20076,8 +20086,8 @@
         <f t="shared" si="3"/>
         <v>-81</v>
       </c>
-      <c r="O24" s="620"/>
-      <c r="P24" s="620"/>
+      <c r="O24" s="599"/>
+      <c r="P24" s="599"/>
       <c r="Q24" s="334" t="s">
         <v>90</v>
       </c>
@@ -20529,10 +20539,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="612" t="s">
+      <c r="F37" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="612"/>
+      <c r="G37" s="591"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>34604.840000000004</v>
@@ -20730,15 +20740,6 @@
     <sortCondition ref="B5:B33"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -20752,6 +20753,15 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -20792,10 +20802,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -20807,50 +20817,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44773</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -20872,7 +20882,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -20929,8 +20939,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -20968,8 +20978,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -21054,8 +21064,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -21141,8 +21151,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -21266,8 +21276,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -21551,8 +21561,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="616"/>
-      <c r="P20" s="616"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -21637,8 +21647,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="617"/>
-      <c r="P22" s="617"/>
+      <c r="O22" s="596"/>
+      <c r="P22" s="596"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -21672,8 +21682,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="618"/>
-      <c r="P23" s="618"/>
+      <c r="O23" s="597"/>
+      <c r="P23" s="597"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -21781,8 +21791,8 @@
         <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="O26" s="620"/>
-      <c r="P26" s="620"/>
+      <c r="O26" s="599"/>
+      <c r="P26" s="599"/>
       <c r="Q26" s="381" t="s">
         <v>48</v>
       </c>
@@ -22252,10 +22262,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="612" t="s">
+      <c r="F39" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="612"/>
+      <c r="G39" s="591"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>64021.82</v>
@@ -22418,13 +22428,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -22438,6 +22441,13 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -22472,32 +22482,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="645" t="s">
+      <c r="C2" s="638" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="646"/>
-      <c r="E2" s="646"/>
-      <c r="F2" s="646"/>
-      <c r="G2" s="646"/>
-      <c r="H2" s="647"/>
+      <c r="D2" s="639"/>
+      <c r="E2" s="639"/>
+      <c r="F2" s="639"/>
+      <c r="G2" s="639"/>
+      <c r="H2" s="640"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="409"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" s="409"/>
-      <c r="D4" s="636" t="s">
+      <c r="D4" s="644" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="637"/>
-      <c r="G4" s="636" t="s">
+      <c r="E4" s="645"/>
+      <c r="G4" s="644" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="637"/>
-      <c r="J4" s="636" t="s">
+      <c r="H4" s="645"/>
+      <c r="J4" s="644" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="637"/>
+      <c r="K4" s="645"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="412"/>
@@ -22523,7 +22533,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="638" t="s">
+      <c r="B6" s="646" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="421" t="s">
@@ -22549,25 +22559,25 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="638"/>
+      <c r="B7" s="646"/>
       <c r="C7" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="650" t="s">
+      <c r="D7" s="643" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="649"/>
-      <c r="G7" s="648" t="s">
+      <c r="E7" s="642"/>
+      <c r="G7" s="641" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="649"/>
+      <c r="H7" s="642"/>
       <c r="J7" s="438" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="140"/>
     </row>
     <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="639" t="s">
+      <c r="B8" s="647" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="423" t="s">
@@ -22585,7 +22595,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="640"/>
+      <c r="B9" s="648"/>
       <c r="C9" s="424" t="s">
         <v>121</v>
       </c>
@@ -22597,7 +22607,7 @@
       <c r="K9" s="378"/>
     </row>
     <row r="10" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="641" t="s">
+      <c r="B10" s="649" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="430" t="s">
@@ -22619,7 +22629,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="642"/>
+      <c r="B11" s="650"/>
       <c r="C11" s="429" t="s">
         <v>123</v>
       </c>
@@ -22631,7 +22641,7 @@
       <c r="K11" s="378"/>
     </row>
     <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="643" t="s">
+      <c r="B12" s="636" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="433" t="s">
@@ -22649,7 +22659,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="644"/>
+      <c r="B13" s="637"/>
       <c r="C13" s="434" t="s">
         <v>125</v>
       </c>
@@ -22710,16 +22720,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22734,7 +22744,7 @@
   <dimension ref="B1:X50"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22759,10 +22769,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="592"/>
+      <c r="B1" s="602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="602"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -22774,50 +22784,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="593">
+      <c r="B2" s="603">
         <v>44801</v>
       </c>
-      <c r="C2" s="594"/>
-      <c r="F2" s="595" t="s">
+      <c r="C2" s="604"/>
+      <c r="F2" s="605" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="595"/>
-      <c r="H2" s="595"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="605"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="610" t="s">
+      <c r="K2" s="620" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="596" t="s">
+      <c r="C3" s="606" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="597"/>
+      <c r="D3" s="607"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="598" t="s">
+      <c r="F3" s="608" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="599"/>
+      <c r="G3" s="609"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="600" t="s">
+      <c r="I3" s="610" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="610"/>
-      <c r="M3" s="602" t="s">
+      <c r="K3" s="620"/>
+      <c r="L3" s="620"/>
+      <c r="M3" s="612" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="603"/>
-      <c r="O3" s="604" t="s">
+      <c r="N3" s="613"/>
+      <c r="O3" s="614" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="605"/>
+      <c r="P3" s="615"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -22839,7 +22849,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="601"/>
+      <c r="I4" s="611"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -22896,8 +22906,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="606"/>
-      <c r="P5" s="607"/>
+      <c r="O5" s="616"/>
+      <c r="P5" s="617"/>
     </row>
     <row r="6" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -22935,8 +22945,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="608"/>
-      <c r="P6" s="609"/>
+      <c r="O6" s="618"/>
+      <c r="P6" s="619"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -23013,8 +23023,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="590"/>
-      <c r="P8" s="590"/>
+      <c r="O8" s="600"/>
+      <c r="P8" s="600"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -23087,8 +23097,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="613"/>
-      <c r="P10" s="613"/>
+      <c r="O10" s="592"/>
+      <c r="P10" s="592"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -23212,8 +23222,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="615"/>
-      <c r="P13" s="615"/>
+      <c r="O13" s="594"/>
+      <c r="P13" s="594"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -23499,8 +23509,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="616"/>
-      <c r="P20" s="616"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -23577,8 +23587,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="617"/>
-      <c r="P22" s="617"/>
+      <c r="O22" s="596"/>
+      <c r="P22" s="596"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -23612,8 +23622,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="618"/>
-      <c r="P23" s="618"/>
+      <c r="O23" s="597"/>
+      <c r="P23" s="597"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -24174,10 +24184,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="612" t="s">
+      <c r="F39" s="591" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="612"/>
+      <c r="G39" s="591"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>35872.69</v>
@@ -24351,6 +24361,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -24364,12 +24380,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
